--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12168" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">이력!$A$1:$D$28</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="163">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,10 +426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강의 추가가 잘 되는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,22 +666,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 할일이 아닌 다른 값을 입력했을 경우 찾는 할일이 없다는 안내메시지가 나옴.
 2. 이전에 입력한 할일 정보가 변경창에서 떠야함.
 3. 할일 변경시 실제 마감일 입력란이 추가되어 등록할 수 있어야함.                                              
 4. 조회버튼 클릭시 변경된 할일정보가 떠야함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2017.06.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가, 변경, 삭제가 잘 이루어지는가?             - 취소버튼이 나오지않아 바로 창이 꺼진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.추가, 변경, 삭제를 눌렀을 때 취소버튼창이 떠야한다.                                  2. 취소 버튼 창이 뜬다.                       3. 사용자가 그대로 진행 할 것인지, 취소를 할 것인지 선택 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD002, ME001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가, 변경, 삭제를 눌렀을 때 취소버튼창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 추가, 변경, 삭제 버튼 클릭 2. 취소창이 뜬다.                   3. 취소를 한다.            </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가, 변경, 삭제를 눌렀을 때, 취소버튼 창을 뜨게해 창이 꺼짐을 방지한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_012 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,7 +1098,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1131,15 +1159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1147,9 +1166,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1188,13 +1204,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1259,7 +1296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1311,7 +1348,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1505,50 +1542,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="4" width="15.59765625" customWidth="1"/>
+    <col min="1" max="4" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="41.25">
       <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="7.5" customHeight="1"/>
+    <row r="3" spans="1:4" ht="6.75" customHeight="1"/>
+    <row r="4" spans="1:4" ht="20.25">
       <c r="D4" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="20" t="s">
+    <row r="5" spans="1:4" ht="54" customHeight="1"/>
+    <row r="6" spans="1:4" ht="23.25" customHeight="1">
+      <c r="A6" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1">
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="17.25" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1562,7 +1599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
@@ -1576,7 +1613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
@@ -1590,7 +1627,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11" s="14" t="s">
         <v>39</v>
       </c>
@@ -1604,7 +1641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4">
       <c r="A12" s="14" t="s">
         <v>43</v>
       </c>
@@ -1618,105 +1655,105 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="15"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="15"/>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="17.25" thickBot="1">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -1733,31 +1770,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" customWidth="1"/>
-    <col min="3" max="3" width="17.69921875" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="37.5" customWidth="1"/>
-    <col min="5" max="5" width="30.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" customWidth="1"/>
-    <col min="7" max="7" width="25.69921875" customWidth="1"/>
+    <col min="5" max="5" width="30.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.69921875" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" ht="31.5">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2"/>
@@ -1770,7 +1807,7 @@
       <c r="I1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1782,13 +1819,13 @@
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1798,13 +1835,13 @@
       <c r="I3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1814,7 +1851,7 @@
       <c r="I4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -1830,7 +1867,7 @@
       <c r="I5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1842,7 +1879,7 @@
       <c r="I6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="21.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="9" t="s">
         <v>21</v>
@@ -1875,54 +1912,54 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="87.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="83.25" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" thickTop="1">
       <c r="A9" s="2"/>
       <c r="B9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="43" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="39" t="s">
         <v>59</v>
       </c>
       <c r="G9" s="19" t="s">
@@ -1931,158 +1968,158 @@
       <c r="H9" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="39" t="s">
         <v>62</v>
       </c>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="16.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="22"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="3" t="s">
         <v>70</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="16.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="3" t="s">
         <v>71</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="39"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="16.5" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="16.5" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="22"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="17.25" thickTop="1">
       <c r="A16" s="2"/>
       <c r="B16" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="43" t="s">
         <v>76</v>
       </c>
       <c r="D16" s="19" t="s">
@@ -2100,335 +2137,352 @@
       <c r="H16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="50.25" thickBot="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="44"/>
+      <c r="D17" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="1:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J17" s="42"/>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="1:11" ht="18" thickTop="1" thickBot="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="1:11" ht="53.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="1:11" ht="51" thickTop="1" thickBot="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="39" t="s">
         <v>95</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="70.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="67.5" thickTop="1" thickBot="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="E20" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="F20" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="G20" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="H20" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="67.5" thickTop="1" thickBot="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="70.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="2"/>
-      <c r="B21" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="33" t="s">
+      <c r="K21" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="67.5" thickTop="1" thickBot="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="G22" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="34" t="s">
+      <c r="H22" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="42"/>
+      <c r="K22" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="67.5" thickTop="1" thickBot="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="70.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="2"/>
-      <c r="B22" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="31" t="s">
+      <c r="K23" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="67.5" thickTop="1" thickBot="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="31" t="s">
+      <c r="J24" s="39"/>
+      <c r="K24" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="117" thickTop="1" thickBot="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I22" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="70.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="2"/>
-      <c r="B23" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="70.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="2"/>
-      <c r="B24" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="123" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="2"/>
-      <c r="B25" s="31" t="s">
+      <c r="C25" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="D25" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="F25" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="33" t="s">
+      <c r="G25" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="H25" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="I25" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="J25" s="39"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="133.5" thickTop="1" thickBot="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" ht="140.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="2"/>
-      <c r="B26" s="31" t="s">
+      <c r="C26" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="D26" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="F26" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="H26" s="33" t="s">
+      <c r="I26" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" s="40"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="84" thickTop="1" thickBot="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="I26" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19" t="s">
+      <c r="E27" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
+    <row r="28" spans="1:11" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="J19:J20"/>
